--- a/me_docs/3.Reading-HTML-Form-Data-with-JSP.xlsx
+++ b/me_docs/3.Reading-HTML-Form-Data-with-JSP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BCFE40-D1CD-4284-AD43-DAFA0E197FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B9D71F-8729-4CF7-9FF1-844BF690B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML Forms" sheetId="1" r:id="rId1"/>
+    <sheet name="Drop-Down Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Create student-form.html</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>redirected</t>
+  </si>
+  <si>
+    <t>Created student-dropdown-form.html by Copy student-form.html</t>
+  </si>
+  <si>
+    <t>Created student-dropdown-response.jsp by Copy student-response.jsp</t>
   </si>
 </sst>
 </file>
@@ -437,6 +444,363 @@
         <a:xfrm>
           <a:off x="609600" y="36004500"/>
           <a:ext cx="6742857" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503848</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DDDB1D-0682-4EE4-96B8-82E832F35D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7819048" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85E7839-DFC1-4E1E-A096-A83CC268A25E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="7828571" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>275657</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294CE181-6832-41A8-B635-CAF8FFB97B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="4542857" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46705</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>113571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140BBB50-BE0C-4BB7-92BB-32DF1B117178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13335000"/>
+          <a:ext cx="7361905" cy="5828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199314</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>37452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FC2F6A-B7E1-4892-B27F-7C5EBB160289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19621500"/>
+          <a:ext cx="5685714" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237562</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB2ADB6-E707-4851-8563-FE9D89E3FC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24955500"/>
+          <a:ext cx="4504762" cy="1828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66057</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>9238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E89FF7B-9108-401B-ADA2-377EB2FDAFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27241500"/>
+          <a:ext cx="4942857" cy="2295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351467</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>152238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01FB7B8-C7F1-442F-8AE4-60C27653EC33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29718000"/>
+          <a:ext cx="7666667" cy="1295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,4 +1107,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423AC271-DD7F-4BC6-B156-749756D00175}">
+  <dimension ref="A2:A143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/3.Reading-HTML-Form-Data-with-JSP.xlsx
+++ b/me_docs/3.Reading-HTML-Form-Data-with-JSP.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B9D71F-8729-4CF7-9FF1-844BF690B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC23430-4328-4F45-ACB9-E362B2C84190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML Forms" sheetId="1" r:id="rId1"/>
     <sheet name="Drop-Down Lists" sheetId="2" r:id="rId2"/>
+    <sheet name="Radio Buttons" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Create student-form.html</t>
   </si>
@@ -40,10 +41,16 @@
     <t>redirected</t>
   </si>
   <si>
-    <t>Created student-dropdown-form.html by Copy student-form.html</t>
+    <t>Create student-radio-form.html by Copy student-form.html</t>
   </si>
   <si>
-    <t>Created student-dropdown-response.jsp by Copy student-response.jsp</t>
+    <t>Create student-dropdown-form.html by Copy student-form.html</t>
+  </si>
+  <si>
+    <t>Create student-dropdown-response.jsp by Copy student-response.jsp</t>
+  </si>
+  <si>
+    <t>Create student-radio-response.jspp by Copy student-response.jsp</t>
   </si>
 </sst>
 </file>
@@ -725,13 +732,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66057</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>9238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -769,21 +776,422 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>322895</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>27833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5650A74-4E35-4E15-BF3D-F23D9431BAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27051000"/>
+          <a:ext cx="7638095" cy="5933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>351467</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>152238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B599782-B31C-4301-8684-FF5EF3333749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36195000"/>
+          <a:ext cx="7666667" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503848</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD61171-E698-4114-843D-B1BDEEC66528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7819048" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B5653B-2EAE-4DC4-A819-8964B64D92F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="7828571" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256609</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F07AD04-B8A1-40DB-BE08-61ED917EB6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="4523809" cy="1828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351467</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>8786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D18B75-16DA-4CC7-9A09-A1213F420B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13144500"/>
+          <a:ext cx="7666667" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199314</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>37452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7005DB0-780F-4A58-9878-B7F2F655E065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19431000"/>
+          <a:ext cx="5685714" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>75976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB88A9C-746B-4872-916C-C9BCB46E07C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24765000"/>
+          <a:ext cx="4485714" cy="1790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218057</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>18286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46131F7-CEA4-4501-BF8E-357705F330A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26670000"/>
+          <a:ext cx="8142857" cy="6114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142248</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>190190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01FB7B8-C7F1-442F-8AE4-60C27653EC33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE03505E-EE7E-43EC-883B-50CCBFAB15AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,8 +1207,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="29718000"/>
-          <a:ext cx="7666667" cy="1295238"/>
+          <a:off x="609600" y="33337500"/>
+          <a:ext cx="5019048" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313295</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>76024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15962325-FB92-4BC1-808F-3BFCC3C00543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36195000"/>
+          <a:ext cx="8238095" cy="1409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B189"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,10 +1563,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423AC271-DD7F-4BC6-B156-749756D00175}">
-  <dimension ref="A2:A143"/>
+  <dimension ref="A2:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFD0C10-1E08-4AE1-AF79-25B47D88528E}">
+  <dimension ref="A2:B190"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,14 +1612,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>5</v>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/me_docs/3.Reading-HTML-Form-Data-with-JSP.xlsx
+++ b/me_docs/3.Reading-HTML-Form-Data-with-JSP.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC23430-4328-4F45-ACB9-E362B2C84190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA188A8-C98B-41F8-A553-B8DBB45082BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML Forms" sheetId="1" r:id="rId1"/>
     <sheet name="Drop-Down Lists" sheetId="2" r:id="rId2"/>
     <sheet name="Radio Buttons" sheetId="3" r:id="rId3"/>
+    <sheet name="Checkboxes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Create student-form.html</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>Create student-radio-response.jspp by Copy student-response.jsp</t>
+  </si>
+  <si>
+    <t>Create student-checkbox-form.html by Copy student-form.html</t>
+  </si>
+  <si>
+    <t>Create student-checkbox-response.jsp by Copy student-response.jsp</t>
   </si>
 </sst>
 </file>
@@ -1253,6 +1260,407 @@
         <a:xfrm>
           <a:off x="609600" y="36195000"/>
           <a:ext cx="8238095" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503848</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52EDB16-B9CE-4A65-A75C-515FDA8AAA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7819048" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01A4315-8DE2-4519-8C48-7DD5C82077D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="7828571" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256609</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2550F034-D089-48C4-9A5E-E1F3021CA97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="4523809" cy="1828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199314</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>37452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA141684-4D16-4705-B153-62591A1E26C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19431000"/>
+          <a:ext cx="5685714" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351390</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>27809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD54F09-9AE7-4879-AA6E-D7933B717F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13144500"/>
+          <a:ext cx="8276190" cy="6123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199467</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>56929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E8BAEB-8162-45B1-9071-E0E44AB2166D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24955500"/>
+          <a:ext cx="4466667" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313295</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>27786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82DD76A-E296-49C3-8DC3-F5D9354ABE77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26860500"/>
+          <a:ext cx="8238095" cy="6314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18438</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>66381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4581FC-94B9-4D55-9C0D-B2E7C0A0DA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33528000"/>
+          <a:ext cx="4895238" cy="2352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208457</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>190262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB01A90-BA71-4BD8-8BA1-DA9104BC244F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36385500"/>
+          <a:ext cx="8742857" cy="1904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B189"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
@@ -1601,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFD0C10-1E08-4AE1-AF79-25B47D88528E}">
   <dimension ref="A2:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="Q203" sqref="Q203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,4 +2039,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769FA8E0-48E0-4F30-8228-98168628E873}">
+  <dimension ref="A2:B191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>